--- a/Design/BAW0.4.xlsx
+++ b/Design/BAW0.4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\lId\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\BlackAndWhite\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8090" windowHeight="10890" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8090" windowHeight="10890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="特徵" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="147">
   <si>
     <t>連鎖一閃</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -559,14 +559,6 @@
   </si>
   <si>
     <t>連擊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根據連擊量   速度加快  (MAX 10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>連擊完   加速持續一定時間    時間內在一閃   刷新時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -729,6 +721,54 @@
   </si>
   <si>
     <t>推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">根據連擊量   速度加快 </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (MAX 10)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">連擊完   加速持續一定時間    </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>時間內在一閃   刷新時間</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一閃完掉顏色能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>該顏色能量集滿   技能強化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三系集滿   白色無視規則可以一閃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1132,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1180,7 +1220,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -1432,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G20"/>
+  <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1488,12 +1528,12 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>138</v>
+      <c r="B10" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -1502,7 +1542,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1511,24 +1551,48 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>129</v>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1543,7 +1607,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1568,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1594,7 +1658,7 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1605,7 +1669,7 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1621,7 +1685,7 @@
         <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1632,7 +1696,7 @@
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1640,7 +1704,7 @@
         <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -1660,18 +1724,18 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" t="s">
         <v>132</v>
-      </c>
-      <c r="D11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -1754,7 +1818,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
         <v>107</v>
@@ -1770,10 +1834,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C24" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
